--- a/HN_ENG_KS24A_NguyenQuangHuy/public/img/KS24A_FRONTEND_NHOM5.xlsx
+++ b/HN_ENG_KS24A_NguyenQuangHuy/public/img/KS24A_FRONTEND_NHOM5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="KS23B_Nhóm 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>BÀI TẬP MÔN WEB FRONT-END FUNDAMENTAL</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Nhóm: 5</t>
   </si>
   <si>
-    <t>Session: 17</t>
-  </si>
-  <si>
-    <t>Ngày báo cáo: 27/02/2025</t>
+    <t>Session: 18</t>
+  </si>
+  <si>
+    <t>Ngày báo cáo: 02/03/2025</t>
   </si>
   <si>
     <t>Nhóm trưởng: Tống Trần Huy Hoàng</t>
@@ -83,18 +83,18 @@
     <t>Giỏi</t>
   </si>
   <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Bài làm tốt</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
     <t>Xuất sắc</t>
   </si>
   <si>
-    <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Bài làm tốt</t>
-  </si>
-  <si>
-    <t>….</t>
-  </si>
-  <si>
     <t>Vũ Đình Kiên</t>
   </si>
   <si>
@@ -122,7 +122,7 @@
     <t>Hồ Hiều Thanh</t>
   </si>
   <si>
-    <t xml:space="preserve">Bài 8 chưa làm được tính năng tính số ngày </t>
+    <t>bài 2, bài 7 chưa ép kiểu dữ liệu number</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,13 +201,6 @@
       <color theme="3"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -672,148 +665,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1183,7 +1176,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71296296296296" defaultRowHeight="16.8"/>
@@ -1303,25 +1296,25 @@
         <v>8</v>
       </c>
       <c r="E8" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="M8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1338,19 +1331,19 @@
         <v>6</v>
       </c>
       <c r="E9" s="8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>17</v>
@@ -1373,19 +1366,19 @@
         <v>8</v>
       </c>
       <c r="E10" s="8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>23</v>
@@ -1408,19 +1401,19 @@
         <v>6</v>
       </c>
       <c r="E11" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>28</v>
@@ -1443,18 +1436,20 @@
         <v>4</v>
       </c>
       <c r="E12" s="8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" s="8"/>

--- a/HN_ENG_KS24A_NguyenQuangHuy/public/img/KS24A_FRONTEND_NHOM5.xlsx
+++ b/HN_ENG_KS24A_NguyenQuangHuy/public/img/KS24A_FRONTEND_NHOM5.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>BÀI TẬP MÔN WEB FRONT-END FUNDAMENTAL</t>
   </si>
@@ -38,10 +38,10 @@
     <t>Nhóm: 5</t>
   </si>
   <si>
-    <t>Session: 18</t>
-  </si>
-  <si>
-    <t>Ngày báo cáo: 02/03/2025</t>
+    <t>Session: 19</t>
+  </si>
+  <si>
+    <t>Ngày báo cáo: 03/03/2025</t>
   </si>
   <si>
     <t>Nhóm trưởng: Tống Trần Huy Hoàng</t>
@@ -101,6 +101,9 @@
     <t>Khá</t>
   </si>
   <si>
+    <t>Bài 3 sai mệnh giá tiền</t>
+  </si>
+  <si>
     <t>Không hoàn thành</t>
   </si>
   <si>
@@ -122,7 +125,7 @@
     <t>Hồ Hiều Thanh</t>
   </si>
   <si>
-    <t>bài 2, bài 7 chưa ép kiểu dữ liệu number</t>
+    <t>....</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71296296296296" defaultRowHeight="16.8"/>
@@ -1331,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
@@ -1343,13 +1346,13 @@
         <v>19</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1357,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>17</v>
@@ -1384,7 +1387,7 @@
         <v>23</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1392,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>23</v>
@@ -1401,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>17</v>
@@ -1416,30 +1419,30 @@
         <v>20</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="12" ht="33.6" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8">
         <v>4</v>
       </c>
       <c r="E12" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>18</v>
@@ -1448,7 +1451,7 @@
         <v>19</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="5:5">

--- a/HN_ENG_KS24A_NguyenQuangHuy/public/img/KS24A_FRONTEND_NHOM5.xlsx
+++ b/HN_ENG_KS24A_NguyenQuangHuy/public/img/KS24A_FRONTEND_NHOM5.xlsx
@@ -38,10 +38,10 @@
     <t>Nhóm: 5</t>
   </si>
   <si>
-    <t>Session: 19</t>
-  </si>
-  <si>
-    <t>Ngày báo cáo: 03/03/2025</t>
+    <t>Session: 20</t>
+  </si>
+  <si>
+    <t>Ngày báo cáo: 04/03/2025</t>
   </si>
   <si>
     <t>Nhóm trưởng: Tống Trần Huy Hoàng</t>
@@ -101,7 +101,9 @@
     <t>Khá</t>
   </si>
   <si>
-    <t>Bài 3 sai mệnh giá tiền</t>
+    <t>Bài 5 chưa làm được trường hợp dữ liệu nhập vào không phải là số
+  Chưa làm được bài 6
+  Các bài còn lại làm tốt</t>
   </si>
   <si>
     <t>Không hoàn thành</t>
@@ -1179,7 +1181,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71296296296296" defaultRowHeight="16.8"/>
@@ -1320,7 +1322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" ht="84" spans="1:14">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -1334,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>23</v>
@@ -1369,10 +1371,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>18</v>
